--- a/biology/Zoologie/Engoulevent_malgache/Engoulevent_malgache.xlsx
+++ b/biology/Zoologie/Engoulevent_malgache/Engoulevent_malgache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus madagascariensis
 L'Engoulevent malgache ou Engoulevent de Madagascar (Caprimulgus madagascariensis) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Caprimulgus madagascariensis a été décrite en 1840 par le naturaliste français Victor Sganzin (d) (?-1841)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caprimulgus madagascariensis a été décrite en 1840 par le naturaliste français Victor Sganzin (d) (?-1841).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit à Madagascar et aux Seychelles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit à Madagascar et aux Seychelles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2], l'auteur indique que cet oiseau a une tête assez petite et un bec très court[2]. Son plumage est gris satiné, parsemé de taches jaunes[2]. L'extrémité de ses ailes est noir, le dessous du corps gris ainsi que les pattes[2]. Son œil est rougeâtre[2]. Il s'agissait alors d'une espèce commune sur l'île Sainte-Marie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, l'auteur indique que cet oiseau a une tête assez petite et un bec très court. Son plumage est gris satiné, parsemé de taches jaunes. L'extrémité de ses ailes est noir, le dessous du corps gris ainsi que les pattes. Son œil est rougeâtre. Il s'agissait alors d'une espèce commune sur l'île Sainte-Marie.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.2, 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.2, 2021) :
 sous-espèce Caprimulgus madagascariensis aldabrensis Ridgway, 1894
 sous-espèce Caprimulgus madagascariensis madagascariensis Sganzin, 1840</t>
         </is>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, composée de madagascari et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à Madagascar où l'espèce a été découverte. 
 </t>
@@ -669,6 +691,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
